--- a/all_dataset/DIP-chloride.xlsx
+++ b/all_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="286">
   <si>
     <t>smiles</t>
   </si>
@@ -34,12 +34,18 @@
     <t>ΔΔG.expt.</t>
   </si>
   <si>
+    <t>Reference url</t>
+  </si>
+  <si>
     <t>CCC(=O)C</t>
   </si>
   <si>
     <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/ja00213a030</t>
+  </si>
+  <si>
     <t>CCCCCCC(=O)C</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>LIGACIXOYTUXAW-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/jo00248a005</t>
+  </si>
+  <si>
     <t>c1cc(Br)ccc1C(=O)C</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
     <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/jo00280a013</t>
+  </si>
+  <si>
     <t>C1CCCCC1C(=O)CC</t>
   </si>
   <si>
@@ -178,6 +190,9 @@
     <t>YLHXLHGIAMFFBU-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/jo025594y</t>
+  </si>
+  <si>
     <t>CCOC(=O)C(=O)c1ccccc1</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403997004401?via%3Dihub</t>
+  </si>
+  <si>
     <t>COc(c1)cccc1C(=O)C</t>
   </si>
   <si>
@@ -238,6 +256,9 @@
     <t>JECYUBVRTQDVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403900767803</t>
+  </si>
+  <si>
     <t>Oc1cccc(OC)c1C(=O)C</t>
   </si>
   <si>
@@ -310,18 +331,27 @@
     <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/abs/10.1021/ja00165a036</t>
+  </si>
+  <si>
     <t>c1cc(F)ccc1C(=O)CCCCl</t>
   </si>
   <si>
     <t>HXAOUYGZEOZTJO-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0957416600822089</t>
+  </si>
+  <si>
     <t>ClC(Cl)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t>CERJZAHSUZVMCH-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0022113907001601</t>
+  </si>
+  <si>
     <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
   </si>
   <si>
@@ -388,6 +418,9 @@
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/10.1021/ar00013a003</t>
+  </si>
+  <si>
     <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
   </si>
   <si>
@@ -526,6 +559,9 @@
     <t>XRGPFNGLRSIPSA-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
+  </si>
+  <si>
     <t>c1ccccc1C#CC(=O)CC</t>
   </si>
   <si>
@@ -562,12 +598,18 @@
     <t>XLSMFKSTNGKWQX-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403996024471</t>
+  </si>
+  <si>
     <t>C(=O)(CO)CC</t>
   </si>
   <si>
     <t>GFAZHVHNLUBROE-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>C(=O)(CO)c1ccccc1</t>
   </si>
   <si>
@@ -610,6 +652,9 @@
     <t>HJIAMFHSAAEUKR-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/004040399500609G?via%3Dihub</t>
+  </si>
+  <si>
     <t>C(=O)(c1c(N)cccc1)c2ccccc2</t>
   </si>
   <si>
@@ -652,6 +697,9 @@
     <t>GTDQGKWDWVUKTI-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0040403996024896</t>
+  </si>
+  <si>
     <t>C(=O)(c1c(NC)cccc1)C</t>
   </si>
   <si>
@@ -682,6 +730,9 @@
     <t>UFOAYTOVTNNRKJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>https://www.sciencedirect.com/science/article/pii/0040403996002602?via%3Dihub</t>
+  </si>
+  <si>
     <t>C(=O)(c1c(C(=O)O)cccc1)C</t>
   </si>
   <si>
@@ -704,6 +755,123 @@
   </si>
   <si>
     <t>NQSMEZJWJJVYOI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
+  </si>
+  <si>
+    <t>VQCWOGKZDGCRES-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
+  </si>
+  <si>
+    <t>JWQLBVFFLIHXHA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C(F)(F)F)c1c(cccc2)c2cc3c1cccc3</t>
+  </si>
+  <si>
+    <t>MNCMBBIFTVWHIP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>VUBUXALTYMBEQO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>UKYZDGAVBNKBPQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCC</t>
+  </si>
+  <si>
+    <t>NDQOKFMZSIKVBG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCCC</t>
+  </si>
+  <si>
+    <t>OQHGRUHRHLFMBX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>RPTSLLGEWZGTHJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>LISOVATZGSPQOC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>KXSOGUNMZUFDEV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>PWFHYGISSIMQKI-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>VCARCPYEXCPAJO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>JLQHDTDAQBOUBB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#CCCCC</t>
+  </si>
+  <si>
+    <t>RRJHAIWETICRET-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>CDGZCBOPYKCCLD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>XAXKYUYIYBKVHR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>MKMFBYKRUQCCTG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>DPQDBEUDQJLCFS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(CBr)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>ONZQYZKCUHFORE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00106a012</t>
   </si>
 </sst>
 </file>
@@ -4999,6 +5167,728 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="140808075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Picture 113" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="142074900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Picture 114" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="143341725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Picture 115" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="144608550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Picture 116" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="145875375"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="Picture 117" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="147142200"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Picture 118" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="148409025"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Picture 119" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="149675850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Picture 120" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="150942675"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Picture 121" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="152209500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="Picture 122" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="153476325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="Picture 123" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="154743150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="Picture 124" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="156009975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="Picture 125" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="157276800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="Picture 126" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="158543625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="128" name="Picture 127" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId127"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="159810450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="129" name="Picture 128" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="161077275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="130" name="Picture 129" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId129"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="162344100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="131" name="Picture 130" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId130"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="163610925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="132" name="Picture 131" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId131"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="164877750"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5296,7 +6186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5305,7 +6195,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5324,13 +6214,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="100" customHeight="1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>48</v>
@@ -5341,13 +6234,16 @@
       <c r="F2">
         <v>0.03950267709104377</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="100" customHeight="1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>53.5</v>
@@ -5358,13 +6254,16 @@
       <c r="F3">
         <v>-0.06920598452264508</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1.350000000000001</v>
@@ -5375,13 +6274,16 @@
       <c r="F4">
         <v>2.117928070821824</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0.8999999999999986</v>
@@ -5392,13 +6294,16 @@
       <c r="F5">
         <v>2.320279323575566</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="100" customHeight="1">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>2.5</v>
@@ -5409,13 +6314,16 @@
       <c r="F6">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5426,13 +6334,16 @@
       <c r="F7">
         <v>1.453139524998222</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>89.65000000000001</v>
@@ -5443,13 +6354,16 @@
       <c r="F8">
         <v>-1.06547349528128</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" customHeight="1">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1.299999999999997</v>
@@ -5460,13 +6374,16 @@
       <c r="F9">
         <v>2.136803750966795</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>6.299999999999997</v>
@@ -5477,13 +6394,16 @@
       <c r="F10">
         <v>1.332281203281557</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0.9500000000000028</v>
@@ -5494,13 +6414,16 @@
       <c r="F11">
         <v>2.293347004688446</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>3.799999999999997</v>
@@ -5511,13 +6434,16 @@
       <c r="F12">
         <v>1.594774490144374</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="100" customHeight="1">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100" customHeight="1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>4.350000000000001</v>
@@ -5528,13 +6454,16 @@
       <c r="F13">
         <v>1.525233356759743</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="100" customHeight="1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -5545,13 +6474,16 @@
       <c r="F14">
         <v>1.448360638914646</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="100" customHeight="1">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="100" customHeight="1">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>93</v>
@@ -5562,13 +6494,16 @@
       <c r="F15">
         <v>-1.276582925099217</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -5579,13 +6514,16 @@
       <c r="F16">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>1.5</v>
@@ -5596,13 +6534,16 @@
       <c r="F17">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5613,13 +6554,16 @@
       <c r="F18">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>96.5</v>
@@ -5630,13 +6574,16 @@
       <c r="F19">
         <v>-1.636897285266562</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -5647,13 +6594,16 @@
       <c r="F20">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>37</v>
@@ -5664,13 +6614,16 @@
       <c r="F21">
         <v>0.2626596419205716</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>38.5</v>
@@ -5681,13 +6634,16 @@
       <c r="F22">
         <v>0.2311543712701654</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>31</v>
@@ -5698,13 +6654,16 @@
       <c r="F23">
         <v>0.3948748769913301</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>27.5</v>
@@ -5715,13 +6674,16 @@
       <c r="F24">
         <v>0.4784185629834729</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -5732,13 +6694,16 @@
       <c r="F25">
         <v>-1.23324378886652</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="G25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>94.5</v>
@@ -5749,13 +6714,16 @@
       <c r="F26">
         <v>-1.103556668584487</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -5766,13 +6734,16 @@
       <c r="F27">
         <v>0.8978060342685438</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>0.5</v>
@@ -5783,13 +6754,16 @@
       <c r="F28">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="100" customHeight="1">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <v>63.5</v>
@@ -5800,13 +6774,16 @@
       <c r="F29">
         <v>-0.2732756675134899</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="G29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="100" customHeight="1">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5817,13 +6794,16 @@
       <c r="F30">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="G30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="100" customHeight="1">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -5834,13 +6814,16 @@
       <c r="F31">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="100" customHeight="1">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="100" customHeight="1">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>2.5</v>
@@ -5851,13 +6834,16 @@
       <c r="F32">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="100" customHeight="1">
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="100" customHeight="1">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D33">
         <v>6.5</v>
@@ -5868,13 +6854,16 @@
       <c r="F33">
         <v>1.315802917695658</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="100" customHeight="1">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -5885,13 +6874,16 @@
       <c r="F34">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="100" customHeight="1">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="100" customHeight="1">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>95</v>
@@ -5902,13 +6894,16 @@
       <c r="F35">
         <v>-1.716814035582577</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="100" customHeight="1">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <v>98</v>
@@ -5919,13 +6914,16 @@
       <c r="F36">
         <v>-2.269203661219362</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="100" customHeight="1">
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="100" customHeight="1">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D37">
         <v>91</v>
@@ -5936,13 +6934,16 @@
       <c r="F37">
         <v>-1.34901111815735</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="100" customHeight="1">
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="100" customHeight="1">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>91</v>
@@ -5953,13 +6954,16 @@
       <c r="F38">
         <v>-1.34901111815735</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="100" customHeight="1">
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="100" customHeight="1">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D39">
         <v>89.5</v>
@@ -5970,13 +6974,16 @@
       <c r="F39">
         <v>-1.249439344048173</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="100" customHeight="1">
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="100" customHeight="1">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>89</v>
@@ -5987,13 +6994,16 @@
       <c r="F40">
         <v>-1.135836915731208</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="100" customHeight="1">
+      <c r="G40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="100" customHeight="1">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>95</v>
@@ -6004,13 +7014,16 @@
       <c r="F41">
         <v>-1.716814035582577</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="100" customHeight="1">
+      <c r="G41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100" customHeight="1">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D42">
         <v>3.5</v>
@@ -6021,13 +7034,16 @@
       <c r="F42">
         <v>1.801907092249077</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="100" customHeight="1">
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="100" customHeight="1">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D43">
         <v>2.5</v>
@@ -6038,13 +7054,16 @@
       <c r="F43">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="100" customHeight="1">
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="100" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -6055,13 +7074,16 @@
       <c r="F44">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="100" customHeight="1">
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="100" customHeight="1">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -6072,13 +7094,16 @@
       <c r="F45">
         <v>1.715524225407504</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="100" customHeight="1">
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="100" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>40</v>
@@ -6089,13 +7114,16 @@
       <c r="F46">
         <v>0.2001051401535413</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="100" customHeight="1">
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="100" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -6106,13 +7134,16 @@
       <c r="F47">
         <v>2.269203661219363</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="100" customHeight="1">
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6123,13 +7154,16 @@
       <c r="F48">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="100" customHeight="1">
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D49">
         <v>91</v>
@@ -6140,13 +7174,16 @@
       <c r="F49">
         <v>-1.141825110249225</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="100" customHeight="1">
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D50">
         <v>4.5</v>
@@ -6157,13 +7194,16 @@
       <c r="F50">
         <v>1.781307333383719</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="100" customHeight="1">
+      <c r="G50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D51">
         <v>59</v>
@@ -6174,13 +7214,16 @@
       <c r="F51">
         <v>-0.1796241929564407</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="100" customHeight="1">
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="100" customHeight="1">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D52">
         <v>57.5</v>
@@ -6191,13 +7234,16 @@
       <c r="F52">
         <v>-0.1491816558867302</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="100" customHeight="1">
+      <c r="G52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="100" customHeight="1">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D53">
         <v>4.5</v>
@@ -6208,13 +7254,16 @@
       <c r="F53">
         <v>1.781307333383719</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="100" customHeight="1">
+      <c r="G53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="100" customHeight="1">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D54">
         <v>97.5</v>
@@ -6225,13 +7274,16 @@
       <c r="F54">
         <v>-1.808040943597905</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="100" customHeight="1">
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="100" customHeight="1">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D55">
         <v>92.5</v>
@@ -6242,13 +7294,16 @@
       <c r="F55">
         <v>-1.239873071544692</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="100" customHeight="1">
+      <c r="G55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="100" customHeight="1">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -6259,13 +7314,16 @@
       <c r="F56">
         <v>1.716814035582576</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="100" customHeight="1">
+      <c r="G56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="100" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D57">
         <v>19.5</v>
@@ -6276,13 +7334,16 @@
       <c r="F57">
         <v>0.6997337386092292</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="100" customHeight="1">
+      <c r="G57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="100" customHeight="1">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D58">
         <v>52.5</v>
@@ -6293,13 +7354,16 @@
       <c r="F58">
         <v>-0.04939318846704208</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="100" customHeight="1">
+      <c r="G58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="100" customHeight="1">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -6310,13 +7374,16 @@
       <c r="F59">
         <v>2.269203661219363</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="100" customHeight="1">
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="100" customHeight="1">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D60">
         <v>97.5</v>
@@ -6327,13 +7394,16 @@
       <c r="F60">
         <v>-1.808040943597905</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="100" customHeight="1">
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D61">
         <v>1.5</v>
@@ -6344,13 +7414,16 @@
       <c r="F61">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="100" customHeight="1">
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D62">
         <v>0.5</v>
@@ -6361,13 +7434,16 @@
       <c r="F62">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="100" customHeight="1">
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="100" customHeight="1">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -6378,13 +7454,16 @@
       <c r="F63">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="100" customHeight="1">
+      <c r="G63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="100" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -6395,13 +7474,16 @@
       <c r="F64">
         <v>1.920691153523556</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="100" customHeight="1">
+      <c r="G64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="100" customHeight="1">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D65">
         <v>2.5</v>
@@ -6412,13 +7494,16 @@
       <c r="F65">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="100" customHeight="1">
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D66">
         <v>9</v>
@@ -6429,13 +7514,16 @@
       <c r="F66">
         <v>1.141825110249225</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="100" customHeight="1">
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="100" customHeight="1">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6446,13 +7534,16 @@
       <c r="F67">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="100" customHeight="1">
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="100" customHeight="1">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D68">
         <v>3.5</v>
@@ -6463,13 +7554,16 @@
       <c r="F68">
         <v>1.636897285266561</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="100" customHeight="1">
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="100" customHeight="1">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D69">
         <v>4.5</v>
@@ -6480,13 +7574,16 @@
       <c r="F69">
         <v>1.507727708802602</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="100" customHeight="1">
+      <c r="G69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="100" customHeight="1">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D70">
         <v>2.5</v>
@@ -6497,13 +7594,16 @@
       <c r="F70">
         <v>1.808040943597903</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="100" customHeight="1">
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100" customHeight="1">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D71">
         <v>99</v>
@@ -6514,13 +7614,16 @@
       <c r="F71">
         <v>-2.26778354843842</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="100" customHeight="1">
+      <c r="G71" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="100" customHeight="1">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D72">
         <v>1.5</v>
@@ -6531,13 +7634,16 @@
       <c r="F72">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="100" customHeight="1">
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="100" customHeight="1">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D73">
         <v>98</v>
@@ -6548,13 +7654,16 @@
       <c r="F73">
         <v>-1.920691153523556</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="100" customHeight="1">
+      <c r="G73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="100" customHeight="1">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D74">
         <v>99.5</v>
@@ -6565,13 +7674,16 @@
       <c r="F74">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="100" customHeight="1">
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="100" customHeight="1">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D75">
         <v>99.5</v>
@@ -6582,13 +7694,16 @@
       <c r="F75">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="100" customHeight="1">
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="100" customHeight="1">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D76">
         <v>99.5</v>
@@ -6599,13 +7714,16 @@
       <c r="F76">
         <v>-2.61235179709804</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="100" customHeight="1">
+      <c r="G76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="100" customHeight="1">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D77">
         <v>34</v>
@@ -6616,13 +7734,16 @@
       <c r="F77">
         <v>0.3273489621763137</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="100" customHeight="1">
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="100" customHeight="1">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -6633,13 +7754,16 @@
       <c r="F78">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="100" customHeight="1">
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="100" customHeight="1">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D79">
         <v>97.5</v>
@@ -6650,13 +7774,16 @@
       <c r="F79">
         <v>-1.808040943597905</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="100" customHeight="1">
+      <c r="G79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="100" customHeight="1">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D80">
         <v>9.5</v>
@@ -6667,13 +7794,16 @@
       <c r="F80">
         <v>1.112422729872089</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="100" customHeight="1">
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="100" customHeight="1">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D81">
         <v>32</v>
@@ -6684,13 +7814,16 @@
       <c r="F81">
         <v>0.3720014599087912</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="100" customHeight="1">
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" customHeight="1">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D82">
         <v>60.5</v>
@@ -6701,13 +7834,16 @@
       <c r="F82">
         <v>-0.2104086459133792</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="100" customHeight="1">
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="100" customHeight="1">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D83">
         <v>58.5</v>
@@ -6718,13 +7854,16 @@
       <c r="F83">
         <v>-0.1694418635416117</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="100" customHeight="1">
+      <c r="G83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="100" customHeight="1">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D84">
         <v>64</v>
@@ -6735,13 +7874,16 @@
       <c r="F84">
         <v>-0.2839537127928058</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="100" customHeight="1">
+      <c r="G84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="100" customHeight="1">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D85">
         <v>76.5</v>
@@ -6752,13 +7894,16 @@
       <c r="F85">
         <v>-0.5824968785696466</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="100" customHeight="1">
+      <c r="G85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="100" customHeight="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D86">
         <v>99</v>
@@ -6769,13 +7914,16 @@
       <c r="F86">
         <v>-2.706709396523275</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="100" customHeight="1">
+      <c r="G86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="100" customHeight="1">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D87">
         <v>69.5</v>
@@ -6786,13 +7934,16 @@
       <c r="F87">
         <v>-0.4064631060318465</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="100" customHeight="1">
+      <c r="G87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="100" customHeight="1">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D88">
         <v>98.5</v>
@@ -6803,13 +7954,16 @@
       <c r="F88">
         <v>-2.464891741858764</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="100" customHeight="1">
+      <c r="G88" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="100" customHeight="1">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D89">
         <v>92</v>
@@ -6820,13 +7974,16 @@
       <c r="F89">
         <v>-1.20534710889541</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="100" customHeight="1">
+      <c r="G89" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="100" customHeight="1">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D90">
         <v>97</v>
@@ -6837,13 +7994,16 @@
       <c r="F90">
         <v>-1.715524225407506</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="100" customHeight="1">
+      <c r="G90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="100" customHeight="1">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D91">
         <v>92.5</v>
@@ -6854,13 +8014,16 @@
       <c r="F91">
         <v>-1.364860276337504</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="100" customHeight="1">
+      <c r="G91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="100" customHeight="1">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D92">
         <v>97.5</v>
@@ -6871,13 +8034,16 @@
       <c r="F92">
         <v>-1.990303135492855</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="100" customHeight="1">
+      <c r="G92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="100" customHeight="1">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -6888,13 +8054,16 @@
       <c r="F93">
         <v>1.888460135226809</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="100" customHeight="1">
+      <c r="G93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="100" customHeight="1">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D94">
         <v>95.5</v>
@@ -6905,13 +8074,16 @@
       <c r="F94">
         <v>-1.659716389125445</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="100" customHeight="1">
+      <c r="G94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="100" customHeight="1">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C95" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D95">
         <v>96.5</v>
@@ -6922,13 +8094,16 @@
       <c r="F95">
         <v>-1.801907092249079</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="100" customHeight="1">
+      <c r="G95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="100" customHeight="1">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D96">
         <v>0.5</v>
@@ -6939,13 +8114,16 @@
       <c r="F96">
         <v>2.875693712128075</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="100" customHeight="1">
+      <c r="G96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="100" customHeight="1">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="D97">
         <v>98.2</v>
@@ -6956,13 +8134,16 @@
       <c r="F97">
         <v>-2.053279301596302</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="100" customHeight="1">
+      <c r="G97" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="100" customHeight="1">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D98">
         <v>94</v>
@@ -6973,13 +8154,16 @@
       <c r="F98">
         <v>-1.631715471340137</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="100" customHeight="1">
+      <c r="G98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="100" customHeight="1">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D99">
         <v>98.45</v>
@@ -6990,13 +8174,16 @@
       <c r="F99">
         <v>-2.461800293250796</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="100" customHeight="1">
+      <c r="G99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="100" customHeight="1">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D100">
         <v>50</v>
@@ -7007,13 +8194,16 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="100" customHeight="1">
+      <c r="G100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="100" customHeight="1">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D101">
         <v>64</v>
@@ -7024,13 +8214,16 @@
       <c r="F101">
         <v>-0.3412024452107102</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="100" customHeight="1">
+      <c r="G101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="100" customHeight="1">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D102">
         <v>57.5</v>
@@ -7041,13 +8234,16 @@
       <c r="F102">
         <v>-0.1792586026380871</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="100" customHeight="1">
+      <c r="G102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="100" customHeight="1">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D103">
         <v>50</v>
@@ -7058,13 +8254,16 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="100" customHeight="1">
+      <c r="G103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="100" customHeight="1">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D104">
         <v>98.5</v>
@@ -7075,13 +8274,16 @@
       <c r="F104">
         <v>-2.481546415790242</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="100" customHeight="1">
+      <c r="G104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="100" customHeight="1">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D105">
         <v>84.5</v>
@@ -7092,13 +8294,16 @@
       <c r="F105">
         <v>-1.005709443919899</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="100" customHeight="1">
+      <c r="G105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="100" customHeight="1">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D106">
         <v>82</v>
@@ -7109,13 +8314,16 @@
       <c r="F106">
         <v>-0.8992243881450639</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="100" customHeight="1">
+      <c r="G106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="100" customHeight="1">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D107">
         <v>98</v>
@@ -7126,13 +8334,16 @@
       <c r="F107">
         <v>-2.307927273185563</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="100" customHeight="1">
+      <c r="G107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="100" customHeight="1">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="D108">
         <v>83</v>
@@ -7143,13 +8354,16 @@
       <c r="F108">
         <v>-0.940308679943321</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="100" customHeight="1">
+      <c r="G108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="100" customHeight="1">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="D109">
         <v>1.5</v>
@@ -7160,13 +8374,16 @@
       <c r="F109">
         <v>2.065179567503287</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="100" customHeight="1">
+      <c r="G109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="100" customHeight="1">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D110">
         <v>90</v>
@@ -7177,13 +8394,16 @@
       <c r="F110">
         <v>-1.302998118851925</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="100" customHeight="1">
+      <c r="G110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="100" customHeight="1">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C111" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -7194,13 +8414,16 @@
       <c r="F111">
         <v>2.267783548438423</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="100" customHeight="1">
+      <c r="G111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="100" customHeight="1">
       <c r="A112" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="D112">
         <v>0.5</v>
@@ -7211,13 +8434,16 @@
       <c r="F112">
         <v>2.612351797098031</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="100" customHeight="1">
+      <c r="G112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="100" customHeight="1">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D113">
         <v>65</v>
@@ -7227,6 +8453,389 @@
       </c>
       <c r="F113">
         <v>-0.3671026313690585</v>
+      </c>
+      <c r="G113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="100" customHeight="1">
+      <c r="A114" t="s">
+        <v>247</v>
+      </c>
+      <c r="C114" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>0.59302</v>
+      </c>
+      <c r="F114">
+        <v>1.239851285303664</v>
+      </c>
+      <c r="G114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="100" customHeight="1">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115">
+        <v>4.5</v>
+      </c>
+      <c r="E115">
+        <v>0.59302</v>
+      </c>
+      <c r="F115">
+        <v>1.811705069448287</v>
+      </c>
+      <c r="G115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="100" customHeight="1">
+      <c r="A116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>252</v>
+      </c>
+      <c r="D116">
+        <v>9</v>
+      </c>
+      <c r="E116">
+        <v>0.59302</v>
+      </c>
+      <c r="F116">
+        <v>1.372031785702698</v>
+      </c>
+      <c r="G116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="100" customHeight="1">
+      <c r="A117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>0.59302</v>
+      </c>
+      <c r="F117">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="100" customHeight="1">
+      <c r="A118" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118">
+        <v>6.5</v>
+      </c>
+      <c r="E118">
+        <v>0.59302</v>
+      </c>
+      <c r="F118">
+        <v>1.581085764005266</v>
+      </c>
+      <c r="G118" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="100" customHeight="1">
+      <c r="A119" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" t="s">
+        <v>258</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>0.59302</v>
+      </c>
+      <c r="F119">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="100" customHeight="1">
+      <c r="A120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120">
+        <v>4.5</v>
+      </c>
+      <c r="E120">
+        <v>0.59302</v>
+      </c>
+      <c r="F120">
+        <v>1.811705069448287</v>
+      </c>
+      <c r="G120" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="100" customHeight="1">
+      <c r="A121" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121">
+        <v>6.5</v>
+      </c>
+      <c r="E121">
+        <v>0.59302</v>
+      </c>
+      <c r="F121">
+        <v>1.581085764005266</v>
+      </c>
+      <c r="G121" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="100" customHeight="1">
+      <c r="A122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>0.49352</v>
+      </c>
+      <c r="F122">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="G122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="100" customHeight="1">
+      <c r="A123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C123" t="s">
+        <v>266</v>
+      </c>
+      <c r="D123">
+        <v>64</v>
+      </c>
+      <c r="E123">
+        <v>0.59302</v>
+      </c>
+      <c r="F123">
+        <v>-0.3412024452107102</v>
+      </c>
+      <c r="G123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="100" customHeight="1">
+      <c r="A124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124">
+        <v>31</v>
+      </c>
+      <c r="E124">
+        <v>0.59302</v>
+      </c>
+      <c r="F124">
+        <v>0.4744867473524853</v>
+      </c>
+      <c r="G124" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="100" customHeight="1">
+      <c r="A125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>0.59302</v>
+      </c>
+      <c r="F125">
+        <v>2.307927273185564</v>
+      </c>
+      <c r="G125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="100" customHeight="1">
+      <c r="A126" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>0.59302</v>
+      </c>
+      <c r="F126">
+        <v>2.061396045046114</v>
+      </c>
+      <c r="G126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="100" customHeight="1">
+      <c r="A127" t="s">
+        <v>273</v>
+      </c>
+      <c r="C127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127">
+        <v>73</v>
+      </c>
+      <c r="E127">
+        <v>0.59302</v>
+      </c>
+      <c r="F127">
+        <v>-0.5898310795119318</v>
+      </c>
+      <c r="G127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="100" customHeight="1">
+      <c r="A128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" t="s">
+        <v>276</v>
+      </c>
+      <c r="D128">
+        <v>42.5</v>
+      </c>
+      <c r="E128">
+        <v>0.59302</v>
+      </c>
+      <c r="F128">
+        <v>0.1792586026380871</v>
+      </c>
+      <c r="G128" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="100" customHeight="1">
+      <c r="A129" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" t="s">
+        <v>278</v>
+      </c>
+      <c r="D129">
+        <v>0.5</v>
+      </c>
+      <c r="E129">
+        <v>0.59302</v>
+      </c>
+      <c r="F129">
+        <v>3.139035627158119</v>
+      </c>
+      <c r="G129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="100" customHeight="1">
+      <c r="A130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" t="s">
+        <v>280</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>0.59302</v>
+      </c>
+      <c r="F130">
+        <v>2.307927273185564</v>
+      </c>
+      <c r="G130" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="100" customHeight="1">
+      <c r="A131" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>0.59302</v>
+      </c>
+      <c r="F131">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="100" customHeight="1">
+      <c r="A132" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132">
+        <v>98</v>
+      </c>
+      <c r="E132">
+        <v>0.49352</v>
+      </c>
+      <c r="F132">
+        <v>-1.920691153523556</v>
+      </c>
+      <c r="G132" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/all_dataset/DIP-chloride.xlsx
+++ b/all_dataset/DIP-chloride.xlsx
@@ -6266,13 +6266,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1.350000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>2.117928070821824</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -6286,7 +6286,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.8999999999999986</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
@@ -6366,13 +6366,13 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1.299999999999997</v>
+        <v>1.3</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>2.136803750966795</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -6386,7 +6386,7 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>6.299999999999997</v>
+        <v>6.3</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
@@ -6406,7 +6406,7 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.9500000000000028</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
@@ -6426,7 +6426,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>3.799999999999997</v>
+        <v>3.8</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
@@ -6446,7 +6446,7 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>4.350000000000001</v>
+        <v>4.35</v>
       </c>
       <c r="E13">
         <v>0.49352</v>
@@ -7189,10 +7189,10 @@
         <v>4.5</v>
       </c>
       <c r="E50">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.781307333383719</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G50" t="s">
         <v>111</v>

--- a/all_dataset/DIP-chloride.xlsx
+++ b/all_dataset/DIP-chloride.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="288">
   <si>
     <t>smiles</t>
   </si>
@@ -52,6 +52,12 @@
     <t>ZPVFWPFBNIEHGJ-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>c1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)CC</t>
   </si>
   <si>
@@ -295,6 +301,12 @@
     <t>WRYKPYJMRHQDBM-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>XEUGKOFTNAYMMX-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>COc1ccc(OC)cc1C(=O)C</t>
   </si>
   <si>
@@ -521,12 +533,6 @@
   </si>
   <si>
     <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>ClCC(=O)c1ccccc1</t>
@@ -5889,6 +5895,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="164877750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="133" name="Picture 132" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId132"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="166144575"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6186,7 +6230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6266,13 +6310,13 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
         <v>0.49352</v>
       </c>
       <c r="F4">
-        <v>2.117928070821825</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -6286,13 +6330,13 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.899999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="E5">
         <v>0.49352</v>
       </c>
       <c r="F5">
-        <v>2.320279323575566</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -6306,13 +6350,13 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>2.5</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="E6">
         <v>0.49352</v>
       </c>
       <c r="F6">
-        <v>1.808040943597903</v>
+        <v>2.320279323575566</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -6326,13 +6370,13 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
         <v>0.49352</v>
       </c>
       <c r="F7">
-        <v>1.453139524998222</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -6346,13 +6390,13 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>89.65000000000001</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0.49352</v>
       </c>
       <c r="F8">
-        <v>-1.06547349528128</v>
+        <v>1.453139524998222</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -6366,13 +6410,13 @@
         <v>23</v>
       </c>
       <c r="D9">
-        <v>1.3</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="E9">
         <v>0.49352</v>
       </c>
       <c r="F9">
-        <v>2.136803750966794</v>
+        <v>-1.06547349528128</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -6386,13 +6430,13 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
         <v>0.49352</v>
       </c>
       <c r="F10">
-        <v>1.332281203281557</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -6406,13 +6450,13 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.950000000000003</v>
+        <v>6.3</v>
       </c>
       <c r="E11">
         <v>0.49352</v>
       </c>
       <c r="F11">
-        <v>2.293347004688446</v>
+        <v>1.332281203281557</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -6426,13 +6470,13 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>3.8</v>
+        <v>0.950000000000003</v>
       </c>
       <c r="E12">
         <v>0.49352</v>
       </c>
       <c r="F12">
-        <v>1.594774490144374</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -6446,13 +6490,13 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="E13">
         <v>0.49352</v>
       </c>
       <c r="F13">
-        <v>1.525233356759743</v>
+        <v>1.594774490144374</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -6466,13 +6510,13 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>4.35</v>
       </c>
       <c r="E14">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F14">
-        <v>1.448360638914646</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -6486,36 +6530,36 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F15">
-        <v>-1.276582925099217</v>
+        <v>1.448360638914646</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100" customHeight="1">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
       <c r="D16">
-        <v>1.5</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>0.49352</v>
       </c>
       <c r="F16">
-        <v>2.065179567503287</v>
+        <v>-1.276582925099217</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="100" customHeight="1">
@@ -6535,7 +6579,7 @@
         <v>2.065179567503287</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="100" customHeight="1">
@@ -6546,16 +6590,16 @@
         <v>42</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E18">
         <v>0.49352</v>
       </c>
       <c r="F18">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="100" customHeight="1">
@@ -6566,16 +6610,16 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>96.5</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.49352</v>
       </c>
       <c r="F19">
-        <v>-1.636897285266562</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100" customHeight="1">
@@ -6586,16 +6630,16 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>96.5</v>
       </c>
       <c r="E20">
         <v>0.49352</v>
       </c>
       <c r="F20">
-        <v>2.267783548438423</v>
+        <v>-1.636897285266562</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="100" customHeight="1">
@@ -6606,36 +6650,36 @@
         <v>48</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0.49352</v>
       </c>
       <c r="F21">
-        <v>0.2626596419205716</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="100" customHeight="1">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
       <c r="D22">
-        <v>38.5</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0.49352</v>
       </c>
       <c r="F22">
-        <v>0.2311543712701654</v>
+        <v>0.2626596419205716</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100" customHeight="1">
@@ -6646,16 +6690,16 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>38.5</v>
       </c>
       <c r="E23">
         <v>0.49352</v>
       </c>
       <c r="F23">
-        <v>0.3948748769913301</v>
+        <v>0.2311543712701654</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="100" customHeight="1">
@@ -6666,16 +6710,16 @@
         <v>55</v>
       </c>
       <c r="D24">
-        <v>27.5</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0.49352</v>
       </c>
       <c r="F24">
-        <v>0.4784185629834729</v>
+        <v>0.3948748769913301</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="100" customHeight="1">
@@ -6686,36 +6730,36 @@
         <v>57</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>27.5</v>
       </c>
       <c r="E25">
-        <v>0.38805</v>
+        <v>0.49352</v>
       </c>
       <c r="F25">
-        <v>-1.23324378886652</v>
+        <v>0.4784185629834729</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="100" customHeight="1">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
       <c r="D26">
-        <v>94.5</v>
+        <v>96</v>
       </c>
       <c r="E26">
         <v>0.38805</v>
       </c>
       <c r="F26">
-        <v>-1.103556668584487</v>
+        <v>-1.23324378886652</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="100" customHeight="1">
@@ -6726,16 +6770,16 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>94.5</v>
       </c>
       <c r="E27">
         <v>0.38805</v>
       </c>
       <c r="F27">
-        <v>0.8978060342685438</v>
+        <v>-1.103556668584487</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="100" customHeight="1">
@@ -6746,16 +6790,16 @@
         <v>64</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>0.49352</v>
+        <v>0.38805</v>
       </c>
       <c r="F28">
-        <v>2.612351797098031</v>
+        <v>0.8978060342685438</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="100" customHeight="1">
@@ -6766,16 +6810,16 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>63.5</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
         <v>0.49352</v>
       </c>
       <c r="F29">
-        <v>-0.2732756675134899</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="100" customHeight="1">
@@ -6786,16 +6830,16 @@
         <v>68</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>63.5</v>
       </c>
       <c r="E30">
         <v>0.49352</v>
       </c>
       <c r="F30">
-        <v>2.267783548438423</v>
+        <v>-0.2732756675134899</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="100" customHeight="1">
@@ -6806,36 +6850,36 @@
         <v>70</v>
       </c>
       <c r="D31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0.49352</v>
       </c>
       <c r="F31">
-        <v>2.065179567503287</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="100" customHeight="1">
       <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
         <v>72</v>
       </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
       <c r="D32">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E32">
         <v>0.49352</v>
       </c>
       <c r="F32">
-        <v>1.808040943597903</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="100" customHeight="1">
@@ -6846,16 +6890,16 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E33">
         <v>0.49352</v>
       </c>
       <c r="F33">
-        <v>1.315802917695658</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="100" customHeight="1">
@@ -6866,16 +6910,16 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="E34">
         <v>0.49352</v>
       </c>
       <c r="F34">
-        <v>1.715524225407504</v>
+        <v>1.315802917695658</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="100" customHeight="1">
@@ -6886,36 +6930,36 @@
         <v>79</v>
       </c>
       <c r="D35">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F35">
-        <v>-1.716814035582577</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="100" customHeight="1">
       <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
       <c r="D36">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E36">
         <v>0.58307</v>
       </c>
       <c r="F36">
-        <v>-2.269203661219362</v>
+        <v>-1.716814035582577</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="100" customHeight="1">
@@ -6926,16 +6970,16 @@
         <v>84</v>
       </c>
       <c r="D37">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>0.58307</v>
       </c>
       <c r="F37">
-        <v>-1.34901111815735</v>
+        <v>-2.269203661219362</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="100" customHeight="1">
@@ -6955,7 +6999,7 @@
         <v>-1.34901111815735</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="100" customHeight="1">
@@ -6966,16 +7010,16 @@
         <v>88</v>
       </c>
       <c r="D39">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>0.58307</v>
       </c>
       <c r="F39">
-        <v>-1.249439344048173</v>
+        <v>-1.34901111815735</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="100" customHeight="1">
@@ -6986,16 +7030,16 @@
         <v>90</v>
       </c>
       <c r="D40">
-        <v>89</v>
+        <v>89.5</v>
       </c>
       <c r="E40">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F40">
-        <v>-1.135836915731208</v>
+        <v>-1.249439344048173</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="100" customHeight="1">
@@ -7006,16 +7050,16 @@
         <v>92</v>
       </c>
       <c r="D41">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E41">
-        <v>0.58307</v>
+        <v>0.54327</v>
       </c>
       <c r="F41">
-        <v>-1.716814035582577</v>
+        <v>-1.135836915731208</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="100" customHeight="1">
@@ -7026,16 +7070,16 @@
         <v>94</v>
       </c>
       <c r="D42">
-        <v>3.5</v>
+        <v>95</v>
       </c>
       <c r="E42">
-        <v>0.54327</v>
+        <v>0.58307</v>
       </c>
       <c r="F42">
-        <v>1.801907092249077</v>
+        <v>-1.716814035582577</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="100" customHeight="1">
@@ -7046,16 +7090,16 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="E43">
         <v>0.49352</v>
       </c>
       <c r="F43">
-        <v>1.808040943597903</v>
+        <v>-0.2001051401535412</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="100" customHeight="1">
@@ -7066,16 +7110,16 @@
         <v>98</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E44">
-        <v>0.49352</v>
+        <v>0.54327</v>
       </c>
       <c r="F44">
-        <v>1.715524225407504</v>
+        <v>1.801907092249077</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="100" customHeight="1">
@@ -7086,16 +7130,16 @@
         <v>100</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E45">
         <v>0.49352</v>
       </c>
       <c r="F45">
-        <v>1.715524225407504</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="100" customHeight="1">
@@ -7106,16 +7150,16 @@
         <v>102</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>0.49352</v>
       </c>
       <c r="F46">
-        <v>0.2001051401535413</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="100" customHeight="1">
@@ -7126,96 +7170,96 @@
         <v>104</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F47">
-        <v>2.269203661219363</v>
+        <v>1.715524225407504</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="100" customHeight="1">
       <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
       <c r="D48">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <v>0.49352</v>
       </c>
       <c r="F48">
-        <v>2.267783548438423</v>
+        <v>0.2001051401535413</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="100" customHeight="1">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0.58307</v>
+      </c>
+      <c r="F49">
+        <v>2.269203661219363</v>
+      </c>
+      <c r="G49" t="s">
         <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49">
-        <v>91</v>
-      </c>
-      <c r="E49">
-        <v>0.49352</v>
-      </c>
-      <c r="F49">
-        <v>-1.141825110249225</v>
-      </c>
-      <c r="G49" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="100" customHeight="1">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0.49352</v>
       </c>
       <c r="F50">
-        <v>1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="100" customHeight="1">
       <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
         <v>114</v>
       </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
       <c r="D51">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E51">
         <v>0.49352</v>
       </c>
       <c r="F51">
-        <v>-0.1796241929564407</v>
+        <v>-1.141825110249225</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="100" customHeight="1">
@@ -7226,16 +7270,16 @@
         <v>117</v>
       </c>
       <c r="D52">
-        <v>57.5</v>
+        <v>4.5</v>
       </c>
       <c r="E52">
         <v>0.49352</v>
       </c>
       <c r="F52">
-        <v>-0.1491816558867302</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="100" customHeight="1">
@@ -7246,16 +7290,16 @@
         <v>119</v>
       </c>
       <c r="D53">
-        <v>4.5</v>
+        <v>59</v>
       </c>
       <c r="E53">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F53">
-        <v>1.781307333383719</v>
+        <v>-0.1796241929564407</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="100" customHeight="1">
@@ -7266,16 +7310,16 @@
         <v>121</v>
       </c>
       <c r="D54">
-        <v>97.5</v>
+        <v>57.5</v>
       </c>
       <c r="E54">
         <v>0.49352</v>
       </c>
       <c r="F54">
-        <v>-1.808040943597905</v>
+        <v>-0.1491816558867302</v>
       </c>
       <c r="G54" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="100" customHeight="1">
@@ -7286,16 +7330,16 @@
         <v>123</v>
       </c>
       <c r="D55">
-        <v>92.5</v>
+        <v>4.5</v>
       </c>
       <c r="E55">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F55">
-        <v>-1.239873071544692</v>
+        <v>1.781307333383719</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="100" customHeight="1">
@@ -7306,16 +7350,16 @@
         <v>125</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>97.5</v>
       </c>
       <c r="E56">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F56">
-        <v>1.716814035582576</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="100" customHeight="1">
@@ -7326,16 +7370,16 @@
         <v>127</v>
       </c>
       <c r="D57">
-        <v>19.5</v>
+        <v>92.5</v>
       </c>
       <c r="E57">
         <v>0.49352</v>
       </c>
       <c r="F57">
-        <v>0.6997337386092292</v>
+        <v>-1.239873071544692</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="100" customHeight="1">
@@ -7346,16 +7390,16 @@
         <v>129</v>
       </c>
       <c r="D58">
-        <v>52.5</v>
+        <v>5</v>
       </c>
       <c r="E58">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F58">
-        <v>-0.04939318846704208</v>
+        <v>1.716814035582576</v>
       </c>
       <c r="G58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="100" customHeight="1">
@@ -7366,16 +7410,16 @@
         <v>131</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>19.5</v>
       </c>
       <c r="E59">
-        <v>0.58307</v>
+        <v>0.49352</v>
       </c>
       <c r="F59">
-        <v>2.269203661219363</v>
+        <v>0.6997337386092292</v>
       </c>
       <c r="G59" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="100" customHeight="1">
@@ -7386,56 +7430,56 @@
         <v>133</v>
       </c>
       <c r="D60">
-        <v>97.5</v>
+        <v>52.5</v>
       </c>
       <c r="E60">
         <v>0.49352</v>
       </c>
       <c r="F60">
-        <v>-1.808040943597905</v>
+        <v>-0.04939318846704208</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="100" customHeight="1">
       <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
         <v>135</v>
       </c>
-      <c r="C61" t="s">
-        <v>136</v>
-      </c>
       <c r="D61">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E61">
-        <v>0.49352</v>
+        <v>0.58307</v>
       </c>
       <c r="F61">
-        <v>2.065179567503287</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="100" customHeight="1">
       <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
       <c r="D62">
-        <v>0.5</v>
+        <v>97.5</v>
       </c>
       <c r="E62">
         <v>0.49352</v>
       </c>
       <c r="F62">
-        <v>2.612351797098031</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="100" customHeight="1">
@@ -7446,16 +7490,16 @@
         <v>140</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E63">
         <v>0.49352</v>
       </c>
       <c r="F63">
-        <v>2.267783548438423</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="100" customHeight="1">
@@ -7466,16 +7510,16 @@
         <v>142</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E64">
         <v>0.49352</v>
       </c>
       <c r="F64">
-        <v>1.920691153523556</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="100" customHeight="1">
@@ -7486,16 +7530,16 @@
         <v>144</v>
       </c>
       <c r="D65">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0.49352</v>
       </c>
       <c r="F65">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="100" customHeight="1">
@@ -7506,16 +7550,16 @@
         <v>146</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0.49352</v>
       </c>
       <c r="F66">
-        <v>1.141825110249225</v>
+        <v>1.920691153523556</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="100" customHeight="1">
@@ -7526,16 +7570,16 @@
         <v>148</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E67">
         <v>0.49352</v>
       </c>
       <c r="F67">
-        <v>2.267783548438423</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="100" customHeight="1">
@@ -7546,16 +7590,16 @@
         <v>150</v>
       </c>
       <c r="D68">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="E68">
         <v>0.49352</v>
       </c>
       <c r="F68">
-        <v>1.636897285266561</v>
+        <v>1.141825110249225</v>
       </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="100" customHeight="1">
@@ -7566,16 +7610,16 @@
         <v>152</v>
       </c>
       <c r="D69">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0.49352</v>
       </c>
       <c r="F69">
-        <v>1.507727708802602</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="100" customHeight="1">
@@ -7586,16 +7630,16 @@
         <v>154</v>
       </c>
       <c r="D70">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E70">
         <v>0.49352</v>
       </c>
       <c r="F70">
-        <v>1.808040943597903</v>
+        <v>1.636897285266561</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="100" customHeight="1">
@@ -7606,16 +7650,16 @@
         <v>156</v>
       </c>
       <c r="D71">
-        <v>99</v>
+        <v>4.5</v>
       </c>
       <c r="E71">
         <v>0.49352</v>
       </c>
       <c r="F71">
-        <v>-2.26778354843842</v>
+        <v>1.507727708802602</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="100" customHeight="1">
@@ -7626,16 +7670,16 @@
         <v>158</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E72">
         <v>0.49352</v>
       </c>
       <c r="F72">
-        <v>2.065179567503287</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="100" customHeight="1">
@@ -7646,16 +7690,16 @@
         <v>160</v>
       </c>
       <c r="D73">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73">
         <v>0.49352</v>
       </c>
       <c r="F73">
-        <v>-1.920691153523556</v>
+        <v>-2.26778354843842</v>
       </c>
       <c r="G73" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="100" customHeight="1">
@@ -7666,16 +7710,16 @@
         <v>162</v>
       </c>
       <c r="D74">
-        <v>99.5</v>
+        <v>1.5</v>
       </c>
       <c r="E74">
         <v>0.49352</v>
       </c>
       <c r="F74">
-        <v>-2.61235179709804</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="100" customHeight="1">
@@ -7686,16 +7730,16 @@
         <v>164</v>
       </c>
       <c r="D75">
-        <v>99.5</v>
+        <v>98</v>
       </c>
       <c r="E75">
         <v>0.49352</v>
       </c>
       <c r="F75">
-        <v>-2.61235179709804</v>
+        <v>-1.920691153523556</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="100" customHeight="1">
@@ -7715,7 +7759,7 @@
         <v>-2.61235179709804</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="100" customHeight="1">
@@ -7726,16 +7770,16 @@
         <v>168</v>
       </c>
       <c r="D77">
-        <v>34</v>
+        <v>99.5</v>
       </c>
       <c r="E77">
         <v>0.49352</v>
       </c>
       <c r="F77">
-        <v>0.3273489621763137</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="100" customHeight="1">
@@ -7746,16 +7790,16 @@
         <v>170</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>99.5</v>
       </c>
       <c r="E78">
         <v>0.49352</v>
       </c>
       <c r="F78">
-        <v>2.267783548438423</v>
+        <v>-2.61235179709804</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="100" customHeight="1">
@@ -7766,16 +7810,16 @@
         <v>172</v>
       </c>
       <c r="D79">
-        <v>97.5</v>
+        <v>34</v>
       </c>
       <c r="E79">
         <v>0.49352</v>
       </c>
       <c r="F79">
-        <v>-1.808040943597905</v>
+        <v>0.3273489621763137</v>
       </c>
       <c r="G79" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="100" customHeight="1">
@@ -7786,16 +7830,16 @@
         <v>174</v>
       </c>
       <c r="D80">
-        <v>9.5</v>
+        <v>97.5</v>
       </c>
       <c r="E80">
         <v>0.49352</v>
       </c>
       <c r="F80">
-        <v>1.112422729872089</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="100" customHeight="1">
@@ -7806,16 +7850,16 @@
         <v>176</v>
       </c>
       <c r="D81">
-        <v>32</v>
+        <v>9.5</v>
       </c>
       <c r="E81">
         <v>0.49352</v>
       </c>
       <c r="F81">
-        <v>0.3720014599087912</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="100" customHeight="1">
@@ -7826,16 +7870,16 @@
         <v>178</v>
       </c>
       <c r="D82">
-        <v>60.5</v>
+        <v>32</v>
       </c>
       <c r="E82">
         <v>0.49352</v>
       </c>
       <c r="F82">
-        <v>-0.2104086459133792</v>
+        <v>0.3720014599087912</v>
       </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="100" customHeight="1">
@@ -7846,36 +7890,36 @@
         <v>180</v>
       </c>
       <c r="D83">
-        <v>58.5</v>
+        <v>60.5</v>
       </c>
       <c r="E83">
         <v>0.49352</v>
       </c>
       <c r="F83">
-        <v>-0.1694418635416117</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="100" customHeight="1">
       <c r="A84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
       <c r="D84">
-        <v>64</v>
+        <v>58.5</v>
       </c>
       <c r="E84">
         <v>0.49352</v>
       </c>
       <c r="F84">
-        <v>-0.2839537127928058</v>
+        <v>-0.1694418635416117</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="100" customHeight="1">
@@ -7886,16 +7930,16 @@
         <v>185</v>
       </c>
       <c r="D85">
-        <v>76.5</v>
+        <v>64</v>
       </c>
       <c r="E85">
         <v>0.49352</v>
       </c>
       <c r="F85">
-        <v>-0.5824968785696466</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="100" customHeight="1">
@@ -7906,16 +7950,16 @@
         <v>187</v>
       </c>
       <c r="D86">
-        <v>99</v>
+        <v>76.5</v>
       </c>
       <c r="E86">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F86">
-        <v>-2.706709396523275</v>
+        <v>-0.5824968785696466</v>
       </c>
       <c r="G86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="100" customHeight="1">
@@ -7926,16 +7970,16 @@
         <v>189</v>
       </c>
       <c r="D87">
-        <v>69.5</v>
+        <v>99</v>
       </c>
       <c r="E87">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F87">
-        <v>-0.4064631060318465</v>
+        <v>-2.706709396523275</v>
       </c>
       <c r="G87" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="100" customHeight="1">
@@ -7946,16 +7990,16 @@
         <v>191</v>
       </c>
       <c r="D88">
-        <v>98.5</v>
+        <v>69.5</v>
       </c>
       <c r="E88">
-        <v>0.58904</v>
+        <v>0.49352</v>
       </c>
       <c r="F88">
-        <v>-2.464891741858764</v>
+        <v>-0.4064631060318465</v>
       </c>
       <c r="G88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="100" customHeight="1">
@@ -7966,56 +8010,56 @@
         <v>193</v>
       </c>
       <c r="D89">
-        <v>92</v>
+        <v>98.5</v>
       </c>
       <c r="E89">
-        <v>0.49352</v>
+        <v>0.58904</v>
       </c>
       <c r="F89">
-        <v>-1.20534710889541</v>
+        <v>-2.464891741858764</v>
       </c>
       <c r="G89" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="100" customHeight="1">
       <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" t="s">
         <v>195</v>
       </c>
-      <c r="C90" t="s">
-        <v>196</v>
-      </c>
       <c r="D90">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E90">
         <v>0.49352</v>
       </c>
       <c r="F90">
-        <v>-1.715524225407506</v>
+        <v>-1.20534710889541</v>
       </c>
       <c r="G90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="100" customHeight="1">
       <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
         <v>198</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91">
+        <v>97</v>
+      </c>
+      <c r="E91">
+        <v>0.49352</v>
+      </c>
+      <c r="F91">
+        <v>-1.715524225407506</v>
+      </c>
+      <c r="G91" t="s">
         <v>199</v>
-      </c>
-      <c r="D91">
-        <v>92.5</v>
-      </c>
-      <c r="E91">
-        <v>0.54327</v>
-      </c>
-      <c r="F91">
-        <v>-1.364860276337504</v>
-      </c>
-      <c r="G91" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="100" customHeight="1">
@@ -8026,16 +8070,16 @@
         <v>201</v>
       </c>
       <c r="D92">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
       <c r="E92">
         <v>0.54327</v>
       </c>
       <c r="F92">
-        <v>-1.990303135492855</v>
+        <v>-1.364860276337504</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="100" customHeight="1">
@@ -8046,16 +8090,16 @@
         <v>203</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>97.5</v>
       </c>
       <c r="E93">
         <v>0.54327</v>
       </c>
       <c r="F93">
-        <v>1.888460135226809</v>
+        <v>-1.990303135492855</v>
       </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="100" customHeight="1">
@@ -8066,16 +8110,16 @@
         <v>205</v>
       </c>
       <c r="D94">
-        <v>95.5</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>0.54327</v>
       </c>
       <c r="F94">
-        <v>-1.659716389125445</v>
+        <v>1.888460135226809</v>
       </c>
       <c r="G94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="100" customHeight="1">
@@ -8086,16 +8130,16 @@
         <v>207</v>
       </c>
       <c r="D95">
-        <v>96.5</v>
+        <v>95.5</v>
       </c>
       <c r="E95">
         <v>0.54327</v>
       </c>
       <c r="F95">
-        <v>-1.801907092249079</v>
+        <v>-1.659716389125445</v>
       </c>
       <c r="G95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="100" customHeight="1">
@@ -8106,16 +8150,16 @@
         <v>209</v>
       </c>
       <c r="D96">
-        <v>0.5</v>
+        <v>96.5</v>
       </c>
       <c r="E96">
         <v>0.54327</v>
       </c>
       <c r="F96">
-        <v>2.875693712128075</v>
+        <v>-1.801907092249079</v>
       </c>
       <c r="G96" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="100" customHeight="1">
@@ -8126,36 +8170,36 @@
         <v>211</v>
       </c>
       <c r="D97">
-        <v>98.2</v>
+        <v>0.5</v>
       </c>
       <c r="E97">
-        <v>0.51342</v>
+        <v>0.54327</v>
       </c>
       <c r="F97">
-        <v>-2.053279301596302</v>
+        <v>2.875693712128075</v>
       </c>
       <c r="G97" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="100" customHeight="1">
       <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s">
         <v>213</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98">
+        <v>98.2</v>
+      </c>
+      <c r="E98">
+        <v>0.51342</v>
+      </c>
+      <c r="F98">
+        <v>-2.053279301596302</v>
+      </c>
+      <c r="G98" t="s">
         <v>214</v>
-      </c>
-      <c r="D98">
-        <v>94</v>
-      </c>
-      <c r="E98">
-        <v>0.59302</v>
-      </c>
-      <c r="F98">
-        <v>-1.631715471340137</v>
-      </c>
-      <c r="G98" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="100" customHeight="1">
@@ -8166,16 +8210,16 @@
         <v>216</v>
       </c>
       <c r="D99">
-        <v>98.45</v>
+        <v>94</v>
       </c>
       <c r="E99">
         <v>0.59302</v>
       </c>
       <c r="F99">
-        <v>-2.461800293250796</v>
+        <v>-1.631715471340137</v>
       </c>
       <c r="G99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="100" customHeight="1">
@@ -8186,16 +8230,16 @@
         <v>218</v>
       </c>
       <c r="D100">
-        <v>50</v>
+        <v>98.45</v>
       </c>
       <c r="E100">
         <v>0.59302</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-2.461800293250796</v>
       </c>
       <c r="G100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="100" customHeight="1">
@@ -8206,16 +8250,16 @@
         <v>220</v>
       </c>
       <c r="D101">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E101">
         <v>0.59302</v>
       </c>
       <c r="F101">
-        <v>-0.3412024452107102</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="100" customHeight="1">
@@ -8226,16 +8270,16 @@
         <v>222</v>
       </c>
       <c r="D102">
-        <v>57.5</v>
+        <v>64</v>
       </c>
       <c r="E102">
         <v>0.59302</v>
       </c>
       <c r="F102">
-        <v>-0.1792586026380871</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="G102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="100" customHeight="1">
@@ -8246,16 +8290,16 @@
         <v>224</v>
       </c>
       <c r="D103">
-        <v>50</v>
+        <v>57.5</v>
       </c>
       <c r="E103">
         <v>0.59302</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>-0.1792586026380871</v>
       </c>
       <c r="G103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="100" customHeight="1">
@@ -8266,36 +8310,36 @@
         <v>226</v>
       </c>
       <c r="D104">
-        <v>98.5</v>
+        <v>50</v>
       </c>
       <c r="E104">
         <v>0.59302</v>
       </c>
       <c r="F104">
-        <v>-2.481546415790242</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="100" customHeight="1">
       <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
         <v>228</v>
       </c>
-      <c r="C105" t="s">
-        <v>229</v>
-      </c>
       <c r="D105">
-        <v>84.5</v>
+        <v>98.5</v>
       </c>
       <c r="E105">
         <v>0.59302</v>
       </c>
       <c r="F105">
-        <v>-1.005709443919899</v>
+        <v>-2.481546415790242</v>
       </c>
       <c r="G105" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="100" customHeight="1">
@@ -8306,16 +8350,16 @@
         <v>231</v>
       </c>
       <c r="D106">
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="E106">
         <v>0.59302</v>
       </c>
       <c r="F106">
-        <v>-0.8992243881450639</v>
+        <v>-1.005709443919899</v>
       </c>
       <c r="G106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="100" customHeight="1">
@@ -8326,16 +8370,16 @@
         <v>233</v>
       </c>
       <c r="D107">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E107">
         <v>0.59302</v>
       </c>
       <c r="F107">
-        <v>-2.307927273185563</v>
+        <v>-0.8992243881450639</v>
       </c>
       <c r="G107" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="100" customHeight="1">
@@ -8346,16 +8390,16 @@
         <v>235</v>
       </c>
       <c r="D108">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E108">
         <v>0.59302</v>
       </c>
       <c r="F108">
-        <v>-0.940308679943321</v>
+        <v>-2.307927273185563</v>
       </c>
       <c r="G108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="100" customHeight="1">
@@ -8366,36 +8410,36 @@
         <v>237</v>
       </c>
       <c r="D109">
-        <v>1.5</v>
+        <v>83</v>
       </c>
       <c r="E109">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F109">
-        <v>2.065179567503287</v>
+        <v>-0.940308679943321</v>
       </c>
       <c r="G109" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="100" customHeight="1">
       <c r="A110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
         <v>239</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110">
+        <v>1.5</v>
+      </c>
+      <c r="E110">
+        <v>0.49352</v>
+      </c>
+      <c r="F110">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="G110" t="s">
         <v>240</v>
-      </c>
-      <c r="D110">
-        <v>90</v>
-      </c>
-      <c r="E110">
-        <v>0.59302</v>
-      </c>
-      <c r="F110">
-        <v>-1.302998118851925</v>
-      </c>
-      <c r="G110" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="100" customHeight="1">
@@ -8406,16 +8450,16 @@
         <v>242</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E111">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F111">
-        <v>2.267783548438423</v>
+        <v>-1.302998118851925</v>
       </c>
       <c r="G111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="100" customHeight="1">
@@ -8426,16 +8470,16 @@
         <v>244</v>
       </c>
       <c r="D112">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0.49352</v>
       </c>
       <c r="F112">
-        <v>2.612351797098031</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G112" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="100" customHeight="1">
@@ -8446,16 +8490,16 @@
         <v>246</v>
       </c>
       <c r="D113">
-        <v>65</v>
+        <v>0.5</v>
       </c>
       <c r="E113">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F113">
-        <v>-0.3671026313690585</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="G113" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="100" customHeight="1">
@@ -8466,16 +8510,16 @@
         <v>248</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E114">
         <v>0.59302</v>
       </c>
       <c r="F114">
-        <v>1.239851285303664</v>
+        <v>-0.3671026313690585</v>
       </c>
       <c r="G114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="100" customHeight="1">
@@ -8486,16 +8530,16 @@
         <v>250</v>
       </c>
       <c r="D115">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="E115">
         <v>0.59302</v>
       </c>
       <c r="F115">
-        <v>1.811705069448287</v>
+        <v>1.239851285303664</v>
       </c>
       <c r="G115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="100" customHeight="1">
@@ -8506,16 +8550,16 @@
         <v>252</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="E116">
         <v>0.59302</v>
       </c>
       <c r="F116">
-        <v>1.372031785702698</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="G116" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="100" customHeight="1">
@@ -8526,16 +8570,16 @@
         <v>254</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E117">
         <v>0.59302</v>
       </c>
       <c r="F117">
-        <v>1.884649482472939</v>
+        <v>1.372031785702698</v>
       </c>
       <c r="G117" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="100" customHeight="1">
@@ -8546,16 +8590,16 @@
         <v>256</v>
       </c>
       <c r="D118">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <v>0.59302</v>
       </c>
       <c r="F118">
-        <v>1.581085764005266</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="G118" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="100" customHeight="1">
@@ -8566,16 +8610,16 @@
         <v>258</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="E119">
         <v>0.59302</v>
       </c>
       <c r="F119">
-        <v>1.884649482472939</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="G119" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="100" customHeight="1">
@@ -8586,16 +8630,16 @@
         <v>260</v>
       </c>
       <c r="D120">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E120">
         <v>0.59302</v>
       </c>
       <c r="F120">
-        <v>1.811705069448287</v>
+        <v>1.884649482472939</v>
       </c>
       <c r="G120" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="100" customHeight="1">
@@ -8606,16 +8650,16 @@
         <v>262</v>
       </c>
       <c r="D121">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="E121">
         <v>0.59302</v>
       </c>
       <c r="F121">
-        <v>1.581085764005266</v>
+        <v>1.811705069448287</v>
       </c>
       <c r="G121" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="100" customHeight="1">
@@ -8626,16 +8670,16 @@
         <v>264</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="E122">
-        <v>0.49352</v>
+        <v>0.59302</v>
       </c>
       <c r="F122">
-        <v>2.267783548438423</v>
+        <v>1.581085764005266</v>
       </c>
       <c r="G122" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="100" customHeight="1">
@@ -8646,16 +8690,16 @@
         <v>266</v>
       </c>
       <c r="D123">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>0.59302</v>
+        <v>0.49352</v>
       </c>
       <c r="F123">
-        <v>-0.3412024452107102</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="G123" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="100" customHeight="1">
@@ -8666,16 +8710,16 @@
         <v>268</v>
       </c>
       <c r="D124">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E124">
         <v>0.59302</v>
       </c>
       <c r="F124">
-        <v>0.4744867473524853</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="G124" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="100" customHeight="1">
@@ -8686,16 +8730,16 @@
         <v>270</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E125">
         <v>0.59302</v>
       </c>
       <c r="F125">
-        <v>2.307927273185564</v>
+        <v>0.4744867473524853</v>
       </c>
       <c r="G125" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="100" customHeight="1">
@@ -8706,16 +8750,16 @@
         <v>272</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0.59302</v>
       </c>
       <c r="F126">
-        <v>2.061396045046114</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="G126" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="100" customHeight="1">
@@ -8726,16 +8770,16 @@
         <v>274</v>
       </c>
       <c r="D127">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="E127">
         <v>0.59302</v>
       </c>
       <c r="F127">
-        <v>-0.5898310795119318</v>
+        <v>2.061396045046114</v>
       </c>
       <c r="G127" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="100" customHeight="1">
@@ -8746,16 +8790,16 @@
         <v>276</v>
       </c>
       <c r="D128">
-        <v>42.5</v>
+        <v>73</v>
       </c>
       <c r="E128">
         <v>0.59302</v>
       </c>
       <c r="F128">
-        <v>0.1792586026380871</v>
+        <v>-0.5898310795119318</v>
       </c>
       <c r="G128" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="100" customHeight="1">
@@ -8766,16 +8810,16 @@
         <v>278</v>
       </c>
       <c r="D129">
-        <v>0.5</v>
+        <v>42.5</v>
       </c>
       <c r="E129">
         <v>0.59302</v>
       </c>
       <c r="F129">
-        <v>3.139035627158119</v>
+        <v>0.1792586026380871</v>
       </c>
       <c r="G129" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="100" customHeight="1">
@@ -8786,16 +8830,16 @@
         <v>280</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E130">
         <v>0.59302</v>
       </c>
       <c r="F130">
-        <v>2.307927273185564</v>
+        <v>3.139035627158119</v>
       </c>
       <c r="G130" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="100" customHeight="1">
@@ -8806,16 +8850,16 @@
         <v>282</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0.59302</v>
       </c>
       <c r="F131">
-        <v>1.884649482472939</v>
+        <v>2.307927273185564</v>
       </c>
       <c r="G131" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="100" customHeight="1">
@@ -8826,16 +8870,36 @@
         <v>284</v>
       </c>
       <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>0.59302</v>
+      </c>
+      <c r="F132">
+        <v>1.884649482472939</v>
+      </c>
+      <c r="G132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="100" customHeight="1">
+      <c r="A133" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133">
         <v>98</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <v>0.49352</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>-1.920691153523556</v>
       </c>
-      <c r="G132" t="s">
-        <v>285</v>
+      <c r="G133" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
